--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846660.2680264118</v>
+        <v>844081.0548087308</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>94.76106821136263</v>
+        <v>12.28773869504417</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734244</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>47.1677321525292</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906504</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833759</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.405364961712621e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>150.2028876639206</v>
       </c>
       <c r="I4" t="n">
-        <v>55.65005876780062</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713016</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>86.78521310248146</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>125.9844112288583</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>251.712006127762</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>27.37751353466408</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>89.42543414927444</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>142.333443481701</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>168.4959431121566</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.9810313834241</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>87.003412464203</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.05927042690638</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.171820953549689</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238038</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114108</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035195</v>
+        <v>9.75316679403528</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>124.1004521009499</v>
       </c>
       <c r="D13" t="n">
-        <v>7.163189794396407</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146345</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754668</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352842</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119296</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>176.3350943632463</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>181.6459914616333</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229309</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>53.08838020946135</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8253826161906772</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.9155582618913</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="H28" t="n">
-        <v>114.512007517665</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634813</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856309</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,10 +3004,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>25.73194049497678</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053461</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428217</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673025</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703272</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673025</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1671.520478976382</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="C2" t="n">
-        <v>1302.55796203597</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="D2" t="n">
-        <v>944.2922634292197</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="E2" t="n">
-        <v>558.5040108309754</v>
+        <v>475.1976173801487</v>
       </c>
       <c r="F2" t="n">
-        <v>147.5181060413678</v>
+        <v>64.21171259054113</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>125.8997233870219</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>287.6947354520153</v>
       </c>
       <c r="L2" t="n">
-        <v>730.2783389764052</v>
+        <v>525.3175166702048</v>
       </c>
       <c r="M2" t="n">
-        <v>1371.301548596299</v>
+        <v>1013.594243832069</v>
       </c>
       <c r="N2" t="n">
-        <v>2012.324758216193</v>
+        <v>1654.617453451963</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532828</v>
+        <v>1929.733672768595</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821931</v>
+        <v>2448.618721147463</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466517</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2448.259651016316</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016315</v>
+        <v>2236.241780077747</v>
       </c>
       <c r="U2" t="n">
-        <v>2448.259651016315</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2448.259651016315</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>2448.259651016315</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>2448.259651016315</v>
+        <v>1251.125201954205</v>
       </c>
       <c r="Y2" t="n">
-        <v>2058.120319040504</v>
+        <v>860.9858699783929</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.629392168681</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093821</v>
+        <v>85.99742130093851</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>201.9455071369546</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072345</v>
+        <v>323.3685994072323</v>
       </c>
       <c r="L3" t="n">
-        <v>900.09141451049</v>
+        <v>900.0914145104859</v>
       </c>
       <c r="M3" t="n">
-        <v>1164.030946005978</v>
+        <v>1164.030946005971</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362088</v>
+        <v>1723.65700709016</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>2352.385654925579</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2524.714615879287</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
@@ -4440,7 +4440,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1855.371857735934</v>
+        <v>203.5199438722345</v>
       </c>
       <c r="C4" t="n">
-        <v>1686.435674808027</v>
+        <v>203.5199438722345</v>
       </c>
       <c r="D4" t="n">
-        <v>1686.435674808027</v>
+        <v>203.5199438722345</v>
       </c>
       <c r="E4" t="n">
-        <v>1538.522581225634</v>
+        <v>203.5199438722345</v>
       </c>
       <c r="F4" t="n">
-        <v>1538.522581225634</v>
+        <v>203.5199438722345</v>
       </c>
       <c r="G4" t="n">
-        <v>1538.522581225634</v>
+        <v>203.5199438722345</v>
       </c>
       <c r="H4" t="n">
-        <v>1386.802492676219</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I4" t="n">
-        <v>1330.590312102683</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J4" t="n">
-        <v>1332.824984110047</v>
+        <v>54.03452733018365</v>
       </c>
       <c r="K4" t="n">
-        <v>1466.334073395851</v>
+        <v>187.5436166159861</v>
       </c>
       <c r="L4" t="n">
-        <v>1692.706176713995</v>
+        <v>413.9157199341293</v>
       </c>
       <c r="M4" t="n">
-        <v>1941.772943046536</v>
+        <v>662.9824862666686</v>
       </c>
       <c r="N4" t="n">
-        <v>2190.352074789137</v>
+        <v>911.5616180092685</v>
       </c>
       <c r="O4" t="n">
-        <v>2403.938841137292</v>
+        <v>1125.148384357423</v>
       </c>
       <c r="P4" t="n">
-        <v>2563.178535773336</v>
+        <v>1284.388078993466</v>
       </c>
       <c r="Q4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="R4" t="n">
-        <v>2589.992766140986</v>
+        <v>1193.54224870256</v>
       </c>
       <c r="S4" t="n">
-        <v>2589.992766140986</v>
+        <v>991.0700018628613</v>
       </c>
       <c r="T4" t="n">
-        <v>2365.581606916424</v>
+        <v>766.6588426382993</v>
       </c>
       <c r="U4" t="n">
-        <v>2365.581606916424</v>
+        <v>678.9970112216514</v>
       </c>
       <c r="V4" t="n">
-        <v>2365.581606916424</v>
+        <v>424.3125230157646</v>
       </c>
       <c r="W4" t="n">
-        <v>2076.164436879464</v>
+        <v>424.3125230157646</v>
       </c>
       <c r="X4" t="n">
-        <v>2076.164436879464</v>
+        <v>424.3125230157646</v>
       </c>
       <c r="Y4" t="n">
-        <v>1855.371857735934</v>
+        <v>203.5199438722345</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1374.687099891958</v>
+        <v>1140.796480512553</v>
       </c>
       <c r="C5" t="n">
-        <v>1005.724582951546</v>
+        <v>1140.796480512553</v>
       </c>
       <c r="D5" t="n">
-        <v>878.4676019122953</v>
+        <v>782.5307819058028</v>
       </c>
       <c r="E5" t="n">
-        <v>878.4676019122953</v>
+        <v>782.5307819058028</v>
       </c>
       <c r="F5" t="n">
-        <v>467.4816971226878</v>
+        <v>371.5448771161952</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J5" t="n">
         <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135519</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477395</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2257.170226019559</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.81558556073</v>
+        <v>2257.170226019559</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.752698217159</v>
+        <v>2257.170226019559</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.752698217159</v>
+        <v>1904.401570749445</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.28693995608</v>
+        <v>1530.935812488365</v>
       </c>
       <c r="Y5" t="n">
-        <v>1761.28693995608</v>
+        <v>1140.796480512553</v>
       </c>
     </row>
     <row r="6">
@@ -4629,34 +4629,34 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431329</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594476</v>
+        <v>599.2586963421438</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951773</v>
+        <v>1240.281905962038</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1630.691467287781</v>
       </c>
       <c r="O6" t="n">
         <v>1987.759237993047</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>501.8493066287411</v>
+        <v>517.7426251609727</v>
       </c>
       <c r="C7" t="n">
-        <v>332.9131237008343</v>
+        <v>348.8064422330658</v>
       </c>
       <c r="D7" t="n">
-        <v>332.9131237008343</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E7" t="n">
-        <v>185.0000301184411</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080555</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121973</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1450.534004159847</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1227.599429701828</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>1227.599429701828</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="V7" t="n">
-        <v>972.9149414959414</v>
+        <v>1035.149346095951</v>
       </c>
       <c r="W7" t="n">
-        <v>683.4977714589809</v>
+        <v>745.73217605899</v>
       </c>
       <c r="X7" t="n">
-        <v>683.4977714589809</v>
+        <v>517.7426251609727</v>
       </c>
       <c r="Y7" t="n">
-        <v>683.4977714589809</v>
+        <v>517.7426251609727</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1741.168338477938</v>
+        <v>1652.934136166469</v>
       </c>
       <c r="C8" t="n">
-        <v>1372.205821537527</v>
+        <v>1283.971619226057</v>
       </c>
       <c r="D8" t="n">
-        <v>1013.940122930776</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E8" t="n">
-        <v>843.7422005952644</v>
+        <v>539.9176680210626</v>
       </c>
       <c r="F8" t="n">
-        <v>836.796699846061</v>
+        <v>532.9721672718591</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
         <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477387</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2381.347406599814</v>
       </c>
       <c r="U8" t="n">
-        <v>2127.76817854206</v>
+        <v>2127.768178542061</v>
       </c>
       <c r="V8" t="n">
-        <v>2127.76817854206</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="W8" t="n">
-        <v>2127.76817854206</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="X8" t="n">
-        <v>2127.76817854206</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="Y8" t="n">
-        <v>2127.76817854206</v>
+        <v>1796.70529119849</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431335</v>
+        <v>426.7768722128337</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594483</v>
+        <v>1067.800081832728</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1434.105971325053</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.3135271259589</v>
+        <v>367.625985748637</v>
       </c>
       <c r="C10" t="n">
-        <v>515.3135271259589</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="D10" t="n">
-        <v>515.3135271259589</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E10" t="n">
-        <v>515.3135271259589</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>368.4235796280485</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G10" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080555</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4990,22 +4990,22 @@
         <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1450.534004159847</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U10" t="n">
-        <v>1161.416227170245</v>
+        <v>1139.717194889502</v>
       </c>
       <c r="V10" t="n">
-        <v>906.731738964358</v>
+        <v>885.0327066836151</v>
       </c>
       <c r="W10" t="n">
-        <v>617.3145689273974</v>
+        <v>595.6155366466544</v>
       </c>
       <c r="X10" t="n">
-        <v>617.3145689273974</v>
+        <v>367.625985748637</v>
       </c>
       <c r="Y10" t="n">
-        <v>617.3145689273974</v>
+        <v>367.625985748637</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1923.79428544462</v>
+        <v>1535.258832689348</v>
       </c>
       <c r="C11" t="n">
-        <v>1554.831768504208</v>
+        <v>1166.296315748936</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.566069897458</v>
+        <v>808.0306171421855</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>804.8267575931454</v>
       </c>
       <c r="F11" t="n">
-        <v>785.5801651078502</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469187</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386832</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420322</v>
+        <v>704.5155104420314</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856285</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.553311234589</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234593</v>
+        <v>3826.588132455659</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750373</v>
+        <v>3622.786021971438</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.26048438298</v>
+        <v>3369.295305604046</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.19759703941</v>
+        <v>3038.232418260475</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769295</v>
+        <v>2685.463762990361</v>
       </c>
       <c r="X11" t="n">
-        <v>2410.963183508215</v>
+        <v>2311.998004729281</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.823851532404</v>
+        <v>1921.858672753469</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469187</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469187</v>
+        <v>477.1621322376498</v>
       </c>
       <c r="L12" t="n">
-        <v>501.7988736520017</v>
+        <v>900.4499396649591</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.112647895891</v>
+        <v>977.3905023848077</v>
       </c>
       <c r="N12" t="n">
-        <v>1556.420955246958</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2029.392508112708</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>692.2646055703352</v>
+        <v>203.8650582458534</v>
       </c>
       <c r="C13" t="n">
-        <v>692.2646055703352</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0290603234707</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="E13" t="n">
-        <v>537.1159667410776</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431672</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197099</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>368.45504734577</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888912</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551106</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551106</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551106</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.094986101151</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1646.00427954144</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1391.319791335553</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.902621298592</v>
+        <v>834.2956531176405</v>
       </c>
       <c r="X13" t="n">
-        <v>873.913070400575</v>
+        <v>606.3061022196232</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.913070400575</v>
+        <v>385.5135230760931</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5291,7 +5291,7 @@
         <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
@@ -5303,25 +5303,25 @@
         <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="L15" t="n">
-        <v>763.7360081065948</v>
+        <v>525.8973588994244</v>
       </c>
       <c r="M15" t="n">
-        <v>1355.754362358723</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.754398433617</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>846.8182155057106</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>696.7015760933748</v>
+        <v>175.0061676818309</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109817</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130713</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
         <v>92.81162322608053</v>
@@ -5437,10 +5437,10 @@
         <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.69699212455</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439277</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.93629023339</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196429</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1197.402863263857</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1197.402863263857</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5516,16 +5516,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,19 +5592,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
         <v>2319.799627685893</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135298</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856229</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.1315533873</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356194</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232835</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2393.338457106056</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2393.338457106056</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.899304487669</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597622</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474263</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614389</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179088</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>990.5373202159261</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C28" t="n">
-        <v>821.6011372880192</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D28" t="n">
-        <v>671.4844978756835</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E28" t="n">
-        <v>523.5714042932905</v>
+        <v>113.9333885650337</v>
       </c>
       <c r="F28" t="n">
-        <v>376.6814567953803</v>
+        <v>113.9333885650337</v>
       </c>
       <c r="G28" t="n">
-        <v>209.4853575102598</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,19 +6385,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6412,7 +6412,7 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U28" t="n">
         <v>1755.431557602304</v>
@@ -6421,13 +6421,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159261</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356203</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232847</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408918</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429814</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578614</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000595</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.50678425811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.50678425811</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172275</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135314</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237297</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093767</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908934</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6862,7 +6862,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7160,28 +7160,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908935</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908935</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,7 +7333,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797745</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925703</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490402</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,16 +7427,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="44">
@@ -7643,19 +7643,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188004</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908935</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908935</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925703</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490402</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7982,25 +7982,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>207.0311336426206</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942334</v>
+        <v>194.1476369740039</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659683</v>
+        <v>338.9374781659714</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>142.385081740179</v>
+        <v>277.0628188392501</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740396</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>277.4922425530997</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>22.36271716134866</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906577</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>347.1830914177569</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>36.65812069213189</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-6.979185022862088e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>286.6745712365742</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>378.7585491187121</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238021</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114098</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>43.14636899767795</v>
       </c>
       <c r="D13" t="n">
-        <v>141.452283223816</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034036</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146337</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729082</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613729119</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537621</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440902</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>49.37456102579088</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856728</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>127.9379057921832</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>145.6085800303785</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823035</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>145.6085800303772</v>
       </c>
       <c r="H28" t="n">
-        <v>25.78270532855885</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>226.4057028288512</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194169</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908383.1842849161</v>
+        <v>908383.1842849157</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>994244.0803053688</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>994244.0803053689</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>994244.0803053688</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>994244.0803053689</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>994244.0803053688</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>994244.0803053688</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>994244.0803053688</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>994244.0803053688</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>431046.9291787485</v>
+      </c>
+      <c r="C2" t="n">
         <v>431046.9291787489</v>
       </c>
-      <c r="C2" t="n">
-        <v>431046.9291787487</v>
-      </c>
       <c r="D2" t="n">
-        <v>431046.9291787485</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713449</v>
+        <v>386954.4379713448</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099661</v>
+        <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="M2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="N2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372535</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753987</v>
+        <v>939682.9358753948</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898925</v>
+        <v>172764.3597898963</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>318590.5451569119</v>
+        <v>318590.5451569103</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051376</v>
+        <v>166521.3471051388</v>
       </c>
       <c r="G3" t="n">
         <v>11167.23623557887</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>169414.0168260481</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83206.75751987702</v>
+        <v>83206.75751987651</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848898</v>
+        <v>43782.40655848926</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224748</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151605</v>
       </c>
       <c r="C4" t="n">
         <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6188.359574389009</v>
+        <v>6188.359574389007</v>
       </c>
       <c r="F4" t="n">
         <v>6280.9479104697</v>
@@ -26433,28 +26433,28 @@
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695056</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.48053169503</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
         <v>6287.48053169506</v>
       </c>
       <c r="L4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="M4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="M4" t="n">
-        <v>6287.480531695042</v>
-      </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695056</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531694995</v>
+        <v>6287.480531695055</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699083</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150963</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150961</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214705</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-757766.9204088006</v>
+        <v>-757766.9204087977</v>
       </c>
       <c r="C6" t="n">
-        <v>35734.72530209867</v>
+        <v>35734.72530209502</v>
       </c>
       <c r="D6" t="n">
         <v>208499.0850919911</v>
       </c>
       <c r="E6" t="n">
-        <v>-23918.18892210318</v>
+        <v>-24128.1531659463</v>
       </c>
       <c r="F6" t="n">
-        <v>148462.4565805204</v>
+        <v>148416.5515849535</v>
       </c>
       <c r="G6" t="n">
-        <v>305174.7182460721</v>
+        <v>305139.9803206364</v>
       </c>
       <c r="H6" t="n">
-        <v>316341.9544816511</v>
+        <v>316307.2165562152</v>
       </c>
       <c r="I6" t="n">
-        <v>316341.9544816508</v>
+        <v>316307.2165562152</v>
       </c>
       <c r="J6" t="n">
-        <v>146927.9376556028</v>
+        <v>146893.1997301672</v>
       </c>
       <c r="K6" t="n">
-        <v>316341.9544816509</v>
+        <v>316307.2165562154</v>
       </c>
       <c r="L6" t="n">
-        <v>316341.9544816509</v>
+        <v>316307.2165562153</v>
       </c>
       <c r="M6" t="n">
-        <v>233135.1969617741</v>
+        <v>233100.4590363388</v>
       </c>
       <c r="N6" t="n">
-        <v>272559.5479231621</v>
+        <v>272524.8099977261</v>
       </c>
       <c r="O6" t="n">
-        <v>313318.6565044266</v>
+        <v>313283.9185789905</v>
       </c>
       <c r="P6" t="n">
-        <v>316341.9544816511</v>
+        <v>316307.2165562153</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086483</v>
+        <v>981.3883278086472</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522339</v>
+        <v>189.7254341522381</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272.4638768447119</v>
+        <v>272.4638768447104</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218295</v>
+        <v>145.8707812218306</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>333.8901362734019</v>
+        <v>333.8901362734006</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173581</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364188</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.8901362734019</v>
+        <v>333.8901362734006</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173581</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.8901362734019</v>
+        <v>333.8901362734006</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173581</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364188</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>317.5266704836815</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>94.24014755885219</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>322.5633685259398</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>59.12931773168558</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>199.4600476353375</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>228.6986303918246</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>159.8130172541073</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>118.0435344882672</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27792,7 +27792,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>162.7122091745535</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>240.4003981817796</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>213.4344269601052</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.85094879851316</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28062,10 +28062,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>199.2231867555026</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.270156170763356e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.747935129969846e-12</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-7.369649279441441e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.444267011014745e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090879</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625572</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115537</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066885</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.5191561611355</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014918</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682829</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658663</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485875</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775938</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330891</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325338</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282097</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494783</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072703</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.613166585674098</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743142</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307749</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859901</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.4910271261546</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605097</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911956</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240715</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257139</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433284</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028901</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526427</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.9638617996921</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993399</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.1061293806364538</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651422</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351901</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777186</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855552</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711379</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600305</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932497</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840036</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184392</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351501</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311386</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519936</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567068</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965165</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189582</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,10 +31276,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
@@ -31297,16 +31297,16 @@
         <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583803</v>
@@ -31379,7 +31379,7 @@
         <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31394,7 +31394,7 @@
         <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315819</v>
@@ -31440,7 +31440,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
@@ -31449,7 +31449,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979552</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,43 +31677,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148565</v>
+        <v>4.873046301485646</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.90608543508988</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307177</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726058</v>
+        <v>619.8697634726052</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216974</v>
+        <v>769.0032542216967</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857428</v>
+        <v>855.664291385742</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898389</v>
+        <v>869.5098341898381</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294409</v>
+        <v>821.0534800294402</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615138</v>
+        <v>700.7501494615132</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895589</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188519</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059648</v>
+        <v>89.76921320596472</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256417</v>
+        <v>566.1178216256411</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845331</v>
+        <v>219.8517740430776</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147142</v>
+        <v>678.1177801147136</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431811</v>
+        <v>620.3452877431805</v>
       </c>
       <c r="P12" t="n">
-        <v>475.9810113259884</v>
+        <v>497.8817840205467</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071844</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697588</v>
+        <v>48.42963285697583</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691792</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973095</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761894</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570612</v>
+        <v>98.28514988570603</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.09394102929609</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826906</v>
+        <v>9.339672552826897</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,34 +32072,34 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>333.2691884317019</v>
+        <v>574.9651909908048</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139906</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832324</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N42" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>74.84835158000217</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>163.4293051161549</v>
       </c>
       <c r="L2" t="n">
-        <v>447.0541449741277</v>
+        <v>240.0230113315046</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352465</v>
+        <v>493.2088153150141</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>277.8951710269007</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>524.126311493807</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>103.2802639586397</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138416</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>151.6622745597322</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>122.6495881517956</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>582.5482980840947</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>266.6055873691773</v>
       </c>
       <c r="N3" t="n">
-        <v>430.6011124809195</v>
+        <v>565.2788495799883</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>635.0794422579989</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>174.0696575289981</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.93752551686856</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882741</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.857665945255</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203466</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550902</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632322</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324789</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000436</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944423</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.449553134418</v>
       </c>
       <c r="L5" t="n">
         <v>360.385208115341</v>
@@ -34945,19 +34945,19 @@
         <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671838</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>360.6745158639055</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q6" t="n">
         <v>328.1069739656114</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597958</v>
@@ -35106,7 +35106,7 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P7" t="n">
         <v>202.2269825633448</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>431.0112129403566</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040318</v>
+        <v>232.5478090040314</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276252</v>
+        <v>399.7799124276247</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517094</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584701</v>
+        <v>625.3180581584693</v>
       </c>
       <c r="N11" t="n">
-        <v>640.096770593248</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077542</v>
+        <v>590.9552686077534</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062443</v>
+        <v>469.5171537062436</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151094</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.5209569215661</v>
+        <v>90.52095692156581</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457675</v>
+        <v>427.5634418457669</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625148</v>
+        <v>77.71774012105928</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313809</v>
+        <v>546.7760680313803</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987366</v>
+        <v>477.7490432987361</v>
       </c>
       <c r="P12" t="n">
-        <v>342.0066039116582</v>
+        <v>363.9073766062165</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936559</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701844</v>
+        <v>61.18259316701827</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112338</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.5494446190454</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998361</v>
+        <v>96.87566713998343</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>194.7148086518278</v>
+        <v>436.4108112109305</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>173.4910455250332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396316</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36847,13 +36847,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998991</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N42" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
